--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B5B42-56FF-0C42-BE0D-0210FF4C62C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351D1E0-F990-C14F-82A0-6C49FF04ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,34 @@
   </si>
   <si>
     <t xml:space="preserve"> -&gt; 11월 금리 인상이 마지막이고, 12월은 유지로 예상됨. 11월에 레버리지 ㄱㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금리 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPI 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 등락률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일간 등락률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합 의견</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +821,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:R25"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1422,6 +1450,39 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351D1E0-F990-C14F-82A0-6C49FF04ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C022ED-8160-B441-9F8A-2AB106C0E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016 금리인상 : -19%(현시점 327달러) 까지 갔음, 2회의 급락과 2회의 조정, 제자리로 돌아오는데 1년 걸림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>펩시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022 금리인상 : 1월1일 시작됨. (1회 급락 완료 / 1회 조정 완료 / 2회 급락 진행중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; 레버리지는 10% 2단계로 1000씩 꾸준히 하되, 분기별로 회복되면 계속 빼줘야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; 11월 금리 인상이 마지막이고, 12월은 유지로 예상됨. 11월에 레버리지 ㄱㄱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,19 +174,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPI 관련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간 등락률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일간 등락률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종합 의견</t>
+    <t>경기 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항 발생 시 알림(5% 이상) or 특이사항 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락 마디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 하락마디 도달 시 알림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준금리 발표 일주일 전부터 카운트 다운.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPI지수 발표 일주일 전부터 카운트 다운.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,12 +301,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,7 +412,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,14 +424,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -452,11 +436,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,10 +808,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:R35"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -836,11 +823,13 @@
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:13">
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -857,13 +846,19 @@
       <c r="G2" s="2">
         <v>-0.4</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="17" t="s">
+      <c r="J2" s="19"/>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -885,14 +880,20 @@
         <f t="shared" ref="G3" si="3">C3*0.6</f>
         <v>109.764</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="17" t="s">
-        <v>27</v>
+      <c r="J3" s="21"/>
+      <c r="L3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <f>3030.93/20</f>
@@ -914,11 +915,17 @@
         <f>C4*0.6</f>
         <v>90.92789999999998</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="13" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="L4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -940,9 +947,15 @@
         <f>C5*0.6</f>
         <v>207.88200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="13" t="s">
+      <c r="L5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3">
@@ -964,9 +977,15 @@
         <f>C6*0.6</f>
         <v>248.7</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="16" t="s">
+      <c r="L6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3">
@@ -989,8 +1008,8 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3">
@@ -1013,9 +1032,9 @@
         <v>108.642</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="19" t="s">
-        <v>30</v>
+    <row r="9" spans="2:13">
+      <c r="B9" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="3">
         <v>895.93</v>
@@ -1037,7 +1056,7 @@
         <v>537.55799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:13">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1061,9 +1080,9 @@
         <v>537.55799999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:13">
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>895.93</v>
@@ -1085,7 +1104,7 @@
         <v>537.55799999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:13">
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1109,9 +1128,9 @@
         <v>537.55799999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:13">
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1126,17 +1145,17 @@
         <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
@@ -1163,9 +1182,9 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="17" t="s">
-        <v>29</v>
+    <row r="16" spans="2:13">
+      <c r="B16" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>109.74</v>
@@ -1191,8 +1210,8 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:10">
+      <c r="B17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="3">
@@ -1202,7 +1221,7 @@
         <f t="shared" si="12"/>
         <v>-0.59774295032758973</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>128.96</v>
       </c>
       <c r="F17" s="10">
@@ -1219,8 +1238,8 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:10">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3">
@@ -1247,8 +1266,8 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:10">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3">
@@ -1275,9 +1294,9 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="B20" s="18" t="s">
-        <v>23</v>
+    <row r="20" spans="1:10">
+      <c r="B20" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>172.85</v>
@@ -1294,7 +1313,7 @@
         <v>-1.1045452035124538E-2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>9</v>
@@ -1303,8 +1322,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:10">
+      <c r="B21" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3">
@@ -1322,10 +1341,10 @@
         <v>-0.45967876954672798</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="11">
         <v>408.71</v>
       </c>
@@ -1350,25 +1369,13 @@
         <f>(4895-5000)/5000</f>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>94.54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3">
         <v>46.4</v>
@@ -1387,20 +1394,8 @@
       <c r="G23" s="7">
         <v>-0.41</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="11">
         <v>479.98</v>
       </c>
@@ -1423,65 +1418,6 @@
       </c>
       <c r="G24" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="I25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="B30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1490,88 +1426,7 @@
     <mergeCell ref="I3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F15:G15 G21:G24 D15:D24 F16:F24 G16:G19">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81412866-F66F-42E2-95DC-064646E28864}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J20 D15:D23 F15:F23">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C595971-EB68-4D55-906D-DCD13F6E97FB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D24 F15:F24">
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A397ACB-E89B-46B0-A03D-783EAC942BDB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81412866-F66F-42E2-95DC-064646E28864}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" direction="rightToLeft" negativeBarColorSameAsPositive="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F15:G15 G21:G24 D15:D24 F16:F24 G16:G19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C595971-EB68-4D55-906D-DCD13F6E97FB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" direction="rightToLeft" negativeBarColorSameAsPositive="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J15:J20 D15:D23 F15:F23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A397ACB-E89B-46B0-A03D-783EAC942BDB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" direction="rightToLeft" negativeBarColorSameAsPositive="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D15:D24 F15:F24</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C022ED-8160-B441-9F8A-2AB106C0E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB365C-ED5C-3543-B64C-119E5A5E0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>ASML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,18 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알파벳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +139,6 @@
   </si>
   <si>
     <t>ASML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,7 +795,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -829,7 +813,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -847,14 +831,14 @@
         <v>-0.4</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="19"/>
       <c r="L2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -881,19 +865,19 @@
         <v>109.764</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="21"/>
       <c r="L3" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <f>3030.93/20</f>
@@ -918,10 +902,10 @@
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="L4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -948,15 +932,15 @@
         <v>207.88200000000001</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>414.5</v>
@@ -978,15 +962,15 @@
         <v>248.7</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>67.2</v>
@@ -1010,7 +994,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>181.07</v>
@@ -1034,7 +1018,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>895.93</v>
@@ -1082,7 +1066,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>895.93</v>
@@ -1130,28 +1114,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1172,11 +1153,8 @@
         <f t="shared" ref="F15:F21" si="13">(E15-C3)/C3</f>
         <v>-0.18361211326117854</v>
       </c>
-      <c r="G15" s="10">
-        <v>-0.16</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="7">
         <v>-0.5</v>
@@ -1184,7 +1162,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>109.74</v>
@@ -1200,11 +1178,8 @@
         <f t="shared" si="13"/>
         <v>-0.37359160389715357</v>
       </c>
-      <c r="G16" s="7">
-        <v>-0.12</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="7">
         <v>-0.4</v>
@@ -1228,11 +1203,8 @@
         <f t="shared" si="13"/>
         <v>-0.6277888417467602</v>
       </c>
-      <c r="G17" s="7">
-        <v>-0.49</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="7">
         <v>-0.3</v>
@@ -1240,7 +1212,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>277.16000000000003</v>
@@ -1256,11 +1228,8 @@
         <f t="shared" si="13"/>
         <v>-0.45804583835946927</v>
       </c>
-      <c r="G18" s="7">
-        <v>-0.25</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="7">
         <v>-0.2</v>
@@ -1268,7 +1237,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>62</v>
@@ -1284,11 +1253,8 @@
         <f t="shared" si="13"/>
         <v>-0.11622023809523813</v>
       </c>
-      <c r="G19" s="7">
-        <v>-0.1</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="7">
         <v>-0.1</v>
@@ -1296,7 +1262,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>172.85</v>
@@ -1312,11 +1278,8 @@
         <f t="shared" si="13"/>
         <v>-1.1045452035124538E-2</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -1340,16 +1303,13 @@
         <f t="shared" si="13"/>
         <v>-0.45967876954672798</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="11">
         <v>408.71</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
         <v>299.39999999999998</v>
@@ -1365,17 +1325,13 @@
         <f>(E22-$A$22)/$A$22</f>
         <v>-0.31998238359717152</v>
       </c>
-      <c r="G22" s="7">
-        <f>(4895-5000)/5000</f>
-        <v>-2.1000000000000001E-2</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>94.54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>46.4</v>
@@ -1391,9 +1347,6 @@
         <f>(E23-$A$23)/$A$23</f>
         <v>-0.5855722445525704</v>
       </c>
-      <c r="G23" s="7">
-        <v>-0.41</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="11">
@@ -1415,9 +1368,6 @@
       <c r="F24" s="10">
         <f>(E24-$A$24)/$A$24</f>
         <v>-0.20409183715988172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB365C-ED5C-3543-B64C-119E5A5E0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B8D1D-9080-7144-836E-01EF8D10F4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알파벳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>CPI지수 발표 일주일 전부터 카운트 다운.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 하락률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +442,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,7 +798,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -813,7 +816,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -835,10 +838,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="L2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -869,15 +872,15 @@
       </c>
       <c r="J3" s="21"/>
       <c r="L3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <f>3030.93/20</f>
@@ -902,10 +905,10 @@
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="L4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -932,10 +935,10 @@
         <v>207.88200000000001</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -962,10 +965,10 @@
         <v>248.7</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -1018,7 +1021,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>895.93</v>
@@ -1044,77 +1047,53 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="24">
         <v>895.93</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="24">
         <f t="shared" ref="D10:D12" si="8">C10*0.9</f>
         <v>806.33699999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="24">
         <f t="shared" ref="E10:E12" si="9">C10*0.8</f>
         <v>716.74400000000003</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="24">
         <f t="shared" ref="F10:F12" si="10">C10*0.7</f>
         <v>627.15099999999995</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="24">
         <f t="shared" ref="G10:G12" si="11">C10*0.6</f>
         <v>537.55799999999999</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24">
         <v>895.93</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="8"/>
+      <c r="D11" s="24">
+        <f>C11*0.9</f>
         <v>806.33699999999999</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="9"/>
+      <c r="E11" s="24">
+        <f>C11*0.8</f>
         <v>716.74400000000003</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="10"/>
+      <c r="F11" s="24">
+        <f>C11*0.7</f>
         <v>627.15099999999995</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="11"/>
-        <v>537.55799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>895.93</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="8"/>
-        <v>806.33699999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="9"/>
-        <v>716.74400000000003</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="10"/>
-        <v>627.15099999999995</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="11"/>
+      <c r="G11" s="24">
+        <f>C11*0.6</f>
         <v>537.55799999999999</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>6</v>
@@ -1128,11 +1107,14 @@
       <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1153,6 +1135,10 @@
         <f t="shared" ref="F15:F21" si="13">(E15-C3)/C3</f>
         <v>-0.18361211326117854</v>
       </c>
+      <c r="G15" s="10">
+        <f>F15-D15</f>
+        <v>5.6849240188039385E-3</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1148,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>109.74</v>
@@ -1178,6 +1164,10 @@
         <f t="shared" si="13"/>
         <v>-0.37359160389715357</v>
       </c>
+      <c r="G16" s="10">
+        <f t="shared" ref="G16:G24" si="14">F16-D16</f>
+        <v>-9.7725780536007056E-2</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1203,6 +1193,10 @@
         <f t="shared" si="13"/>
         <v>-0.6277888417467602</v>
       </c>
+      <c r="G17" s="10">
+        <f t="shared" si="14"/>
+        <v>-3.0045891419170467E-2</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1228,6 +1222,10 @@
         <f t="shared" si="13"/>
         <v>-0.45804583835946927</v>
       </c>
+      <c r="G18" s="10">
+        <f t="shared" si="14"/>
+        <v>-0.12670687575392048</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1253,6 +1251,10 @@
         <f t="shared" si="13"/>
         <v>-0.11622023809523813</v>
       </c>
+      <c r="G19" s="10">
+        <f t="shared" si="14"/>
+        <v>-3.8839285714285701E-2</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1278,6 +1280,10 @@
         <f t="shared" si="13"/>
         <v>-1.1045452035124538E-2</v>
       </c>
+      <c r="G20" s="10">
+        <f t="shared" si="14"/>
+        <v>3.4351355829237304E-2</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1303,6 +1309,10 @@
         <f t="shared" si="13"/>
         <v>-0.45967876954672798</v>
       </c>
+      <c r="G21" s="10">
+        <f t="shared" si="14"/>
+        <v>1.5815967765338779E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="11">
@@ -1311,63 +1321,54 @@
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="24">
         <v>299.39999999999998</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-$A$22)/$A$22</f>
         <v>-0.26745124905189499</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="24">
         <v>277.93</v>
       </c>
       <c r="F22" s="10">
         <f>(E22-$A$22)/$A$22</f>
         <v>-0.31998238359717152</v>
       </c>
+      <c r="G22" s="10">
+        <f t="shared" si="14"/>
+        <v>-5.2531134545276525E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>94.54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3">
-        <v>46.4</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="24">
+        <v>396.42</v>
       </c>
       <c r="D23" s="10">
-        <f>(C23-$A$23)/$A$23</f>
-        <v>-0.50920245398773012</v>
-      </c>
-      <c r="E23" s="3">
-        <v>39.18</v>
+        <f>(C23-$A$24)/$A$24</f>
+        <v>-0.17409058710779615</v>
+      </c>
+      <c r="E23" s="24">
+        <v>382.02</v>
       </c>
       <c r="F23" s="10">
-        <f>(E23-$A$23)/$A$23</f>
-        <v>-0.5855722445525704</v>
+        <f>(E23-$A$24)/$A$24</f>
+        <v>-0.20409183715988172</v>
+      </c>
+      <c r="G23" s="10">
+        <f>F23-D23</f>
+        <v>-3.0001250052085565E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="11">
         <v>479.98</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>396.42</v>
-      </c>
-      <c r="D24" s="10">
-        <f>(C24-$A$24)/$A$24</f>
-        <v>-0.17409058710779615</v>
-      </c>
-      <c r="E24" s="3">
-        <v>382.02</v>
-      </c>
-      <c r="F24" s="10">
-        <f>(E24-$A$24)/$A$24</f>
-        <v>-0.20409183715988172</v>
       </c>
     </row>
   </sheetData>

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/stock_report/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B8D1D-9080-7144-836E-01EF8D10F4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159B098-EEE6-B148-91CD-AE21836C83FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="618" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주간 하락률</t>
+    <t>월간 변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,9 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +795,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1047,23 +1044,23 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="3">
         <v>895.93</v>
       </c>
-      <c r="D10" s="24">
-        <f t="shared" ref="D10:D12" si="8">C10*0.9</f>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10" si="8">C10*0.9</f>
         <v>806.33699999999999</v>
       </c>
-      <c r="E10" s="24">
-        <f t="shared" ref="E10:E12" si="9">C10*0.8</f>
+      <c r="E10" s="3">
+        <f t="shared" ref="E10" si="9">C10*0.8</f>
         <v>716.74400000000003</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" ref="F10:F12" si="10">C10*0.7</f>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10" si="10">C10*0.7</f>
         <v>627.15099999999995</v>
       </c>
-      <c r="G10" s="24">
-        <f t="shared" ref="G10:G12" si="11">C10*0.6</f>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10" si="11">C10*0.6</f>
         <v>537.55799999999999</v>
       </c>
     </row>
@@ -1071,22 +1068,22 @@
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="3">
         <v>895.93</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="3">
         <f>C11*0.9</f>
         <v>806.33699999999999</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="3">
         <f>C11*0.8</f>
         <v>716.74400000000003</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="3">
         <f>C11*0.7</f>
         <v>627.15099999999995</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="3">
         <f>C11*0.6</f>
         <v>537.55799999999999</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>-0.37359160389715357</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" ref="G16:G24" si="14">F16-D16</f>
+        <f t="shared" ref="G16:G22" si="14">F16-D16</f>
         <v>-9.7725780536007056E-2</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1321,14 +1318,14 @@
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="3">
         <v>299.39999999999998</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-$A$22)/$A$22</f>
         <v>-0.26745124905189499</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="3">
         <v>277.93</v>
       </c>
       <c r="F22" s="10">
@@ -1347,14 +1344,14 @@
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="3">
         <v>396.42</v>
       </c>
       <c r="D23" s="10">
         <f>(C23-$A$24)/$A$24</f>
         <v>-0.17409058710779615</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="3">
         <v>382.02</v>
       </c>
       <c r="F23" s="10">

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -296,16 +296,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,7 +718,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -734,18 +734,13 @@
     <col width="49.1640625" customWidth="1" style="18" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="18">
+    <row r="1">
       <c r="B1" s="20" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="21" t="inlineStr">
-        <is>
-          <t>02M</t>
+      <c r="B2" s="25" t="inlineStr">
+        <is>
+          <t>01M</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -765,18 +760,18 @@
       <c r="G2" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="I2" s="21" t="inlineStr">
+      <c r="I2" s="25" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="J2" s="22" t="n"/>
-      <c r="L2" s="21" t="inlineStr">
+      <c r="J2" s="26" t="n"/>
+      <c r="L2" s="25" t="inlineStr">
         <is>
           <t>contents</t>
         </is>
       </c>
-      <c r="M2" s="21" t="inlineStr">
+      <c r="M2" s="25" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -807,12 +802,12 @@
         <f>C3*0.6</f>
         <v/>
       </c>
-      <c r="I3" s="23" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>Buy stock when a node is arrived.</t>
         </is>
       </c>
-      <c r="J3" s="24" t="n"/>
+      <c r="J3" s="22" t="n"/>
       <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Daily</t>
@@ -849,8 +844,8 @@
         <f>C4*0.6</f>
         <v/>
       </c>
-      <c r="I4" s="25" t="n"/>
-      <c r="J4" s="26" t="n"/>
+      <c r="I4" s="23" t="n"/>
+      <c r="J4" s="24" t="n"/>
       <c r="L4" s="6" t="inlineStr">
         <is>
           <t>Node</t>
@@ -1065,18 +1060,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="18">
+    <row r="13">
       <c r="B13" s="20" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="21" t="inlineStr">
-        <is>
-          <t>02M</t>
+      <c r="B14" s="25" t="inlineStr">
+        <is>
+          <t>01M</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
@@ -1104,22 +1094,22 @@
           <t>M Diff</t>
         </is>
       </c>
-      <c r="I14" s="21" t="inlineStr">
+      <c r="I14" s="25" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="J14" s="21" t="inlineStr">
+      <c r="J14" s="25" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="L14" s="21" t="inlineStr">
+      <c r="L14" s="25" t="inlineStr">
         <is>
           <t>contents</t>
         </is>
       </c>
-      <c r="M14" s="21" t="inlineStr">
+      <c r="M14" s="25" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -1132,7 +1122,7 @@
         </is>
       </c>
       <c r="C15" s="27" t="n">
-        <v>145.4299926757812</v>
+        <v>185.6399993896484</v>
       </c>
       <c r="D15" s="10">
         <f>(C15-C3)/C3</f>
@@ -1171,7 +1161,7 @@
         </is>
       </c>
       <c r="C16" s="27" t="n">
-        <v>61.33000183105469</v>
+        <v>59.81999969482422</v>
       </c>
       <c r="D16" s="10">
         <f>(C16-C4)/C4</f>
@@ -1210,7 +1200,7 @@
         </is>
       </c>
       <c r="C17" s="27" t="n">
-        <v>209.4299926757812</v>
+        <v>481.6799926757812</v>
       </c>
       <c r="D17" s="10">
         <f>(C17-C5)/C5</f>
@@ -1249,7 +1239,7 @@
         </is>
       </c>
       <c r="C18" s="27" t="n">
-        <v>181.4100036621094</v>
+        <v>248.4199981689453</v>
       </c>
       <c r="D18" s="10">
         <f>(C18-C6)/C6</f>
@@ -1288,7 +1278,7 @@
         </is>
       </c>
       <c r="C19" s="27" t="n">
-        <v>100.4300003051758</v>
+        <v>138.1699981689453</v>
       </c>
       <c r="D19" s="10">
         <f>(C19-C7)/C7</f>
@@ -1321,7 +1311,7 @@
         </is>
       </c>
       <c r="C20" s="27" t="n">
-        <v>171.5599975585938</v>
+        <v>172.9100036621094</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
@@ -1354,7 +1344,7 @@
         </is>
       </c>
       <c r="C21" s="27" t="n">
-        <v>678.530029296875</v>
+        <v>716.9199829101562</v>
       </c>
       <c r="D21" s="10">
         <f>(C21-C9)/C9</f>
@@ -1382,7 +1372,7 @@
         </is>
       </c>
       <c r="C22" s="27" t="n">
-        <v>300.9200134277344</v>
+        <v>402.5899963378906</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-$A$22)/$A$22</f>
@@ -1410,7 +1400,7 @@
         </is>
       </c>
       <c r="C23" s="27" t="n">
-        <v>410.7999877929688</v>
+        <v>472.6499938964844</v>
       </c>
       <c r="D23" s="10">
         <f>(C23-$A$24)/$A$24</f>
@@ -1435,8 +1425,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="I3:J4"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9720" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -740,7 +740,7 @@
     <row r="2">
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>01M</t>
+          <t>02M</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C3" s="27" t="n">
-        <v>182.94</v>
+        <v>199.62</v>
       </c>
       <c r="D3" s="27">
         <f>C3*0.9</f>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C4" s="27" t="n">
-        <v>67.2</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="D4" s="27">
         <f>C4*0.9</f>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C5" s="27" t="n">
-        <v>346.47</v>
+        <v>603.3099999999999</v>
       </c>
       <c r="D5" s="27">
         <f>C5*0.9</f>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C6" s="27" t="n">
-        <v>414.5</v>
+        <v>299.29</v>
       </c>
       <c r="D6" s="27">
         <f>C6*0.9</f>
@@ -935,9 +935,8 @@
           <t>GOOGL</t>
         </is>
       </c>
-      <c r="C7" s="27">
-        <f>3030.93/20</f>
-        <v/>
+      <c r="C7" s="27" t="n">
+        <v>148.39</v>
       </c>
       <c r="D7" s="27">
         <f>C7*0.9</f>
@@ -963,7 +962,7 @@
         </is>
       </c>
       <c r="C8" s="27" t="n">
-        <v>181.07</v>
+        <v>196.88</v>
       </c>
       <c r="D8" s="27">
         <f>C8*0.9</f>
@@ -989,7 +988,7 @@
         </is>
       </c>
       <c r="C9" s="27" t="n">
-        <v>895.9299999999999</v>
+        <v>712.5</v>
       </c>
       <c r="D9" s="27">
         <f>C9*0.9</f>
@@ -1015,7 +1014,7 @@
         </is>
       </c>
       <c r="C10" s="27" t="n">
-        <v>895.9299999999999</v>
+        <v>424.73</v>
       </c>
       <c r="D10" s="27">
         <f>C10*0.9</f>
@@ -1041,7 +1040,7 @@
         </is>
       </c>
       <c r="C11" s="27" t="n">
-        <v>895.9299999999999</v>
+        <v>485.22</v>
       </c>
       <c r="D11" s="27">
         <f>C11*0.9</f>
@@ -1066,7 +1065,7 @@
     <row r="14">
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>01M</t>
+          <t>02M</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
@@ -1122,7 +1121,7 @@
         </is>
       </c>
       <c r="C15" s="27" t="n">
-        <v>185.6399993896484</v>
+        <v>187.6799926757812</v>
       </c>
       <c r="D15" s="10">
         <f>(C15-C3)/C3</f>
@@ -1161,7 +1160,7 @@
         </is>
       </c>
       <c r="C16" s="27" t="n">
-        <v>59.81999969482422</v>
+        <v>60.04000091552734</v>
       </c>
       <c r="D16" s="10">
         <f>(C16-C4)/C4</f>
@@ -1200,7 +1199,7 @@
         </is>
       </c>
       <c r="C17" s="27" t="n">
-        <v>481.6799926757812</v>
+        <v>693.3200073242188</v>
       </c>
       <c r="D17" s="10">
         <f>(C17-C5)/C5</f>
@@ -1239,7 +1238,7 @@
         </is>
       </c>
       <c r="C18" s="27" t="n">
-        <v>248.4199981689453</v>
+        <v>181.0599975585938</v>
       </c>
       <c r="D18" s="10">
         <f>(C18-C6)/C6</f>
@@ -1278,7 +1277,7 @@
         </is>
       </c>
       <c r="C19" s="27" t="n">
-        <v>138.1699981689453</v>
+        <v>143.6799926757812</v>
       </c>
       <c r="D19" s="10">
         <f>(C19-C7)/C7</f>
@@ -1311,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" s="27" t="n">
-        <v>172.9100036621094</v>
+        <v>170.9199981689453</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
@@ -1344,7 +1343,7 @@
         </is>
       </c>
       <c r="C21" s="27" t="n">
-        <v>716.9199829101562</v>
+        <v>898.5399780273438</v>
       </c>
       <c r="D21" s="10">
         <f>(C21-C9)/C9</f>
@@ -1372,17 +1371,17 @@
         </is>
       </c>
       <c r="C22" s="27" t="n">
-        <v>402.5899963378906</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="D22" s="10">
-        <f>(C22-$A$22)/$A$22</f>
+        <f>(C22-C10)/C10</f>
         <v/>
       </c>
       <c r="E22" s="27" t="n">
         <v>277.93</v>
       </c>
       <c r="F22" s="10">
-        <f>(E22-$A$22)/$A$22</f>
+        <f>(E22-C10)/C10</f>
         <v/>
       </c>
       <c r="G22" s="10">
@@ -1400,17 +1399,17 @@
         </is>
       </c>
       <c r="C23" s="27" t="n">
-        <v>472.6499938964844</v>
+        <v>492.5499877929688</v>
       </c>
       <c r="D23" s="10">
-        <f>(C23-$A$24)/$A$24</f>
+        <f>(C23-C11)/C11</f>
         <v/>
       </c>
       <c r="E23" s="27" t="n">
         <v>382.02</v>
       </c>
       <c r="F23" s="10">
-        <f>(E23-$A$24)/$A$24</f>
+        <f>(E23-C11)/C11</f>
         <v/>
       </c>
       <c r="G23" s="10">

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9720" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +291,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -718,24 +718,24 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
-    <col width="3.5" customWidth="1" style="18" min="1" max="1"/>
+    <col width="3.5" customWidth="1" style="17" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="4" min="2" max="2"/>
     <col width="11.1640625" bestFit="1" customWidth="1" style="4" min="3" max="4"/>
     <col width="10.83203125" bestFit="1" customWidth="1" style="4" min="5" max="7"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" style="18" min="9" max="9"/>
-    <col width="8.83203125" customWidth="1" style="18" min="10" max="10"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
-    <col width="49.1640625" customWidth="1" style="18" min="13" max="13"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="17" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="17" min="10" max="10"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="49.1640625" customWidth="1" style="17" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="20" t="n"/>
+      <c r="B1" s="19" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="25" t="inlineStr">
@@ -813,7 +813,7 @@
           <t>Daily</t>
         </is>
       </c>
-      <c r="M3" s="17" t="inlineStr">
+      <c r="M3" s="16" t="inlineStr">
         <is>
           <t>Alarm if more than 5% change occurs.</t>
         </is>
@@ -851,7 +851,7 @@
           <t>Node</t>
         </is>
       </c>
-      <c r="M4" s="17" t="inlineStr">
+      <c r="M4" s="16" t="inlineStr">
         <is>
           <t>Alarm if new node is arrived.</t>
         </is>
@@ -887,7 +887,7 @@
           <t>FED interest</t>
         </is>
       </c>
-      <c r="M5" s="17" t="inlineStr">
+      <c r="M5" s="16" t="inlineStr">
         <is>
           <t>Countdown a week before FED interest announcement.</t>
         </is>
@@ -923,14 +923,14 @@
           <t>CPI</t>
         </is>
       </c>
-      <c r="M6" s="17" t="inlineStr">
+      <c r="M6" s="16" t="inlineStr">
         <is>
           <t>Countdown a week before CPI announcement.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B7" s="20" t="inlineStr">
         <is>
           <t>GOOGL</t>
         </is>
@@ -956,9 +956,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>PEP</t>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C8" s="27" t="n">
@@ -982,7 +982,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>ASML</t>
         </is>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="n"/>
+      <c r="B13" s="19" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="25" t="inlineStr">
@@ -1151,7 +1151,7 @@
           <t>Daily</t>
         </is>
       </c>
-      <c r="M15" s="17" t="n"/>
+      <c r="M15" s="16" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="13" t="inlineStr">
@@ -1190,7 +1190,7 @@
           <t>Node</t>
         </is>
       </c>
-      <c r="M16" s="17" t="n"/>
+      <c r="M16" s="16" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="11" t="inlineStr">
@@ -1229,7 +1229,7 @@
           <t>FED interest</t>
         </is>
       </c>
-      <c r="M17" s="17" t="n"/>
+      <c r="M17" s="16" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="11" t="inlineStr">
@@ -1268,10 +1268,10 @@
           <t>CPI</t>
         </is>
       </c>
-      <c r="M18" s="17" t="n"/>
+      <c r="M18" s="16" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="inlineStr">
+      <c r="B19" s="20" t="inlineStr">
         <is>
           <t>GOOGL</t>
         </is>
@@ -1304,13 +1304,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>PEP</t>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C20" s="27" t="n">
-        <v>170.9199981689453</v>
+        <v>405.6499938964844</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>ASML</t>
         </is>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="18" t="n">
         <v>408.71</v>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="18" t="n">
         <v>94.54000000000001</v>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="18" t="n">
         <v>479.98</v>
       </c>
     </row>

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -740,7 +740,7 @@
     <row r="2">
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>02M</t>
+          <t>03M</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="14">
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>02M</t>
+          <t>03M</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C15" s="27" t="n">
-        <v>187.6799926757812</v>
+        <v>175.1000061035156</v>
       </c>
       <c r="D15" s="10">
         <f>(C15-C3)/C3</f>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="C16" s="27" t="n">
-        <v>60.04000091552734</v>
+        <v>59.81000137329102</v>
       </c>
       <c r="D16" s="10">
         <f>(C16-C4)/C4</f>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C17" s="27" t="n">
-        <v>693.3200073242188</v>
+        <v>852.3699951171875</v>
       </c>
       <c r="D17" s="10">
         <f>(C17-C5)/C5</f>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C18" s="27" t="n">
-        <v>181.0599975585938</v>
+        <v>188.1399993896484</v>
       </c>
       <c r="D18" s="10">
         <f>(C18-C6)/C6</f>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="C19" s="27" t="n">
-        <v>143.6799926757812</v>
+        <v>133.3500061035156</v>
       </c>
       <c r="D19" s="10">
         <f>(C19-C7)/C7</f>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" s="27" t="n">
-        <v>405.6499938964844</v>
+        <v>414.9200134277344</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="C21" s="27" t="n">
-        <v>898.5399780273438</v>
+        <v>998.0399780273438</v>
       </c>
       <c r="D21" s="10">
         <f>(C21-C9)/C9</f>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="C22" s="27" t="n">
-        <v>428.4500122070312</v>
+        <v>444.0199890136719</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-C10)/C10</f>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C23" s="27" t="n">
-        <v>492.5499877929688</v>
+        <v>512.2999877929688</v>
       </c>
       <c r="D23" s="10">
         <f>(C23-C11)/C11</f>

--- a/report/stock_report.xlsx
+++ b/report/stock_report.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -740,7 +740,7 @@
     <row r="2">
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>03M</t>
+          <t>04M</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="3">
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="C3" s="27" t="n">
@@ -822,7 +822,7 @@
     <row r="4">
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C4" s="27" t="n">
@@ -958,7 +958,7 @@
     <row r="8">
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C8" s="27" t="n">
@@ -1065,7 +1065,7 @@
     <row r="14">
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>03M</t>
+          <t>04M</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
@@ -1117,11 +1117,11 @@
     <row r="15">
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="C15" s="27" t="n">
-        <v>175.1000061035156</v>
+        <v>60.68000030517578</v>
       </c>
       <c r="D15" s="10">
         <f>(C15-C3)/C3</f>
@@ -1156,11 +1156,11 @@
     <row r="16">
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C16" s="27" t="n">
-        <v>59.81000137329102</v>
+        <v>424.5700073242188</v>
       </c>
       <c r="D16" s="10">
         <f>(C16-C4)/C4</f>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C17" s="27" t="n">
-        <v>852.3699951171875</v>
+        <v>903.6300048828125</v>
       </c>
       <c r="D17" s="10">
         <f>(C17-C5)/C5</f>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C18" s="27" t="n">
-        <v>188.1399993896484</v>
+        <v>175.2200012207031</v>
       </c>
       <c r="D18" s="10">
         <f>(C18-C6)/C6</f>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="C19" s="27" t="n">
-        <v>133.3500061035156</v>
+        <v>155.4900054931641</v>
       </c>
       <c r="D19" s="10">
         <f>(C19-C7)/C7</f>
@@ -1306,11 +1306,11 @@
     <row r="20">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C20" s="27" t="n">
-        <v>414.9200134277344</v>
+        <v>170.0299987792969</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="C21" s="27" t="n">
-        <v>998.0399780273438</v>
+        <v>992.9500122070312</v>
       </c>
       <c r="D21" s="10">
         <f>(C21-C9)/C9</f>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="C22" s="27" t="n">
-        <v>444.0199890136719</v>
+        <v>444.9500122070312</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-C10)/C10</f>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C23" s="27" t="n">
-        <v>512.2999877929688</v>
+        <v>522.1599731445312</v>
       </c>
       <c r="D23" s="10">
         <f>(C23-C11)/C11</f>
